--- a/목록화 분류번호.xlsx
+++ b/목록화 분류번호.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="19335" windowHeight="10470"/>
+    <workbookView xWindow="30840" yWindow="-150" windowWidth="19335" windowHeight="10470"/>
   </bookViews>
   <sheets>
     <sheet name="분류번호" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>경기천년 CF형 홍보영상 제작</t>
-  </si>
-  <si>
-    <t>경기천년 기념 '내가 사랑하는 경기' 영상 제작</t>
   </si>
   <si>
     <t>경기천년 기념사업 기대효과 연구</t>
@@ -375,6 +372,10 @@
   </si>
   <si>
     <t>1431052-e0001437-2018-B00040-001</t>
+  </si>
+  <si>
+    <t>경기천년 기념 '내가 사랑하는 경기' 영상 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -620,6 +621,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -629,15 +672,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -647,12 +681,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -660,33 +688,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -985,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37:D48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -998,233 +999,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="11">
+      <c r="B3" s="14">
         <v>1435</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>53</v>
+        <v>57</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="9"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="24"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="20"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="10"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="21"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="11">
+      <c r="A6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="14">
         <v>1436</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>23</v>
+        <v>60</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="12"/>
+        <v>61</v>
+      </c>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="12"/>
+        <v>62</v>
+      </c>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="12"/>
+        <v>63</v>
+      </c>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="13"/>
+        <v>64</v>
+      </c>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="23">
+      <c r="A11" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="17">
         <v>1437</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>25</v>
+        <v>65</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="23"/>
+        <v>66</v>
+      </c>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="23"/>
+        <v>67</v>
+      </c>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="23"/>
+        <v>68</v>
+      </c>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="23"/>
+        <v>69</v>
+      </c>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="23"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="2" t="s">
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="23"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="23"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="23"/>
+      <c r="E19" s="17"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="5"/>
@@ -1241,325 +1242,327 @@
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="14">
+        <v>1435</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="23"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="23"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="23"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="23"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="11">
-        <v>1435</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="11" t="s">
+      <c r="D29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="15"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="24"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="16"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="9"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="9"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="2" t="s">
+      <c r="B31" s="14">
+        <v>1436</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" s="12"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="9"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="12"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="9"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" s="12"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="10"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30" s="13"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="11">
-        <v>1436</v>
-      </c>
-      <c r="C31" s="6" t="s">
+      <c r="D32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="16"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="11">
+        <v>1487</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="9"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="9"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="9"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="9"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="9"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="15"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="9"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" s="15"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="9"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="9"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="9"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="9"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E32" s="12"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E33" s="12"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E34" s="12"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E35" s="12"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E36" s="13"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A37" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="22">
-        <v>1487</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="27"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" s="12"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="27"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E39" s="12"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="27"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="6" t="s">
+      <c r="D47" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47" s="15"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="10"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E40" s="12"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="27"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E41" s="12"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="27"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E42" s="12"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="27"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E43" s="12"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="27"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E44" s="12"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="27"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E45" s="12"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="27"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E46" s="12"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="27"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47" s="7" t="s">
+      <c r="D48" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E47" s="12"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="28"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E48" s="13"/>
+      <c r="E48" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A37:A48"/>
-    <mergeCell ref="B37:B48"/>
-    <mergeCell ref="E37:E48"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E3:E5"/>
     <mergeCell ref="E25:E30"/>
     <mergeCell ref="E31:E36"/>
     <mergeCell ref="E6:E10"/>
@@ -1570,13 +1573,11 @@
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:A30"/>
     <mergeCell ref="B25:B30"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="A37:A48"/>
+    <mergeCell ref="B37:B48"/>
+    <mergeCell ref="E37:E48"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/목록화 분류번호.xlsx
+++ b/목록화 분류번호.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="30840" yWindow="-150" windowWidth="19335" windowHeight="10470"/>
@@ -621,6 +621,60 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -630,64 +684,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -987,7 +987,7 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -999,19 +999,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1023,10 +1023,10 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="11">
         <v>1435</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1035,37 +1035,37 @@
       <c r="D3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="23"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="20"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="24"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="21"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="11">
         <v>1436</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1074,59 +1074,59 @@
       <c r="D6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="15"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="15"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="15"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="23">
         <v>1437</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1135,97 +1135,97 @@
       <c r="D11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="23" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="23"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="23"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="23"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="17"/>
+      <c r="E15" s="23"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="17"/>
+      <c r="E16" s="23"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="17"/>
+      <c r="E17" s="23"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="17"/>
+      <c r="E18" s="23"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="17"/>
+      <c r="E19" s="23"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="5"/>
@@ -1242,26 +1242,26 @@
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="21"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1273,10 +1273,10 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="11">
         <v>1435</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -1285,70 +1285,70 @@
       <c r="D25" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="23"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="15"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="23"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E27" s="15"/>
+      <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="23"/>
-      <c r="B28" s="15"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="15"/>
+      <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="23"/>
-      <c r="B29" s="15"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="15"/>
+      <c r="E29" s="12"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="24"/>
-      <c r="B30" s="16"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E30" s="16"/>
+      <c r="E30" s="13"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="11">
         <v>1436</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -1357,71 +1357,71 @@
       <c r="D31" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E32" s="15"/>
+      <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E33" s="15"/>
+      <c r="E33" s="12"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E34" s="15"/>
+      <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E35" s="15"/>
+      <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E36" s="16"/>
+      <c r="E36" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="11">
-        <v>1487</v>
+      <c r="B37" s="22">
+        <v>1437</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>50</v>
@@ -1429,140 +1429,138 @@
       <c r="D37" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="9"/>
-      <c r="B38" s="12"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="29"/>
       <c r="C38" s="6" t="s">
         <v>47</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E38" s="15"/>
+      <c r="E38" s="12"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="9"/>
-      <c r="B39" s="12"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E39" s="15"/>
+      <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="9"/>
-      <c r="B40" s="12"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E40" s="15"/>
+      <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="9"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="29"/>
       <c r="C41" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E41" s="15"/>
+      <c r="E41" s="12"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="9"/>
-      <c r="B42" s="12"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E42" s="15"/>
+      <c r="E42" s="12"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="9"/>
-      <c r="B43" s="12"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="29"/>
       <c r="C43" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E43" s="15"/>
+      <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="9"/>
-      <c r="B44" s="12"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="29"/>
       <c r="C44" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E44" s="15"/>
+      <c r="E44" s="12"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="9"/>
-      <c r="B45" s="12"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="29"/>
       <c r="C45" s="6" t="s">
         <v>46</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E45" s="15"/>
+      <c r="E45" s="12"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="9"/>
-      <c r="B46" s="12"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="29"/>
       <c r="C46" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E46" s="15"/>
+      <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="9"/>
-      <c r="B47" s="12"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="29"/>
       <c r="C47" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E47" s="15"/>
+      <c r="E47" s="12"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="10"/>
-      <c r="B48" s="13"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="30"/>
       <c r="C48" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E48" s="16"/>
+      <c r="E48" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="A37:A48"/>
+    <mergeCell ref="B37:B48"/>
+    <mergeCell ref="E37:E48"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B36"/>
     <mergeCell ref="E25:E30"/>
     <mergeCell ref="E31:E36"/>
     <mergeCell ref="E6:E10"/>
@@ -1573,11 +1571,13 @@
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:A30"/>
     <mergeCell ref="B25:B30"/>
-    <mergeCell ref="A37:A48"/>
-    <mergeCell ref="B37:B48"/>
-    <mergeCell ref="E37:E48"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E3:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/목록화 분류번호.xlsx
+++ b/목록화 분류번호.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="30840" yWindow="-150" windowWidth="19335" windowHeight="10470"/>
+    <workbookView xWindow="3240" yWindow="705" windowWidth="19335" windowHeight="10470"/>
   </bookViews>
   <sheets>
     <sheet name="분류번호" sheetId="1" r:id="rId1"/>
@@ -99,10 +99,6 @@
   </si>
   <si>
     <t>e0001437(브랜딩)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년 홍보전</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -178,203 +174,207 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>경기천년 대형 현수막 제작 설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년 벚꽃축제 홍보부스 운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년 상반기 홍보부스 운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년 역사 교육부스 운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년 하반기 홍보부스 운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년 홍보책자 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년 브랜드 및 축제 영상 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e0001435(아카이빙)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도민참여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e0001436(도민참여)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e0001437(브랜딩)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류번호(처리과코드-단위업무코드-연도-기록물철번호-권호수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1431052-e0001435-2017-A00029-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1431052-e0001435-2017-A00030-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1431052-e0001435-2017-A00032-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1431052-e0001436-2017-C00015-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1431052-e0001436-2017-C00016-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1431052-e0001436-2017-C00018-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1431052-e0001436-2017-C00021-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1431052-e0001437-2017-B00019-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1431052-e0001437-2017-B00022-001</t>
+  </si>
+  <si>
+    <t>1431052-e0001437-2017-B00023-001</t>
+  </si>
+  <si>
+    <t>1431052-e0001437-2017-B00024-001</t>
+  </si>
+  <si>
+    <t>1431052-e0001437-2017-B00025-001</t>
+  </si>
+  <si>
+    <t>1431052-e0001437-2017-B00026-001</t>
+  </si>
+  <si>
+    <t>1431052-e0001437-2017-B00027-001</t>
+  </si>
+  <si>
+    <t>1431052-e0001437-2017-B00028-001</t>
+  </si>
+  <si>
+    <t>1431052-e0001437-2017-B00031-001</t>
+  </si>
+  <si>
+    <t>1431052-e0001435-2018-A00018-001</t>
+  </si>
+  <si>
+    <t>1431052-e0001435-2018-A00019-001</t>
+  </si>
+  <si>
+    <t>1431052-e0001435-2018-A00020-001</t>
+  </si>
+  <si>
+    <t>1431052-e0001435-2018-A00022-001</t>
+  </si>
+  <si>
+    <t>1431052-e0001435-2018-A00033-001</t>
+  </si>
+  <si>
+    <t>1431052-e0001435-2018-A00038-001</t>
+  </si>
+  <si>
+    <t>1431052-e0001436-2018-C00017-001</t>
+  </si>
+  <si>
+    <t>1431052-e0001436-2018-C00021-001</t>
+  </si>
+  <si>
+    <t>1431052-e0001436-2018-C00024-001</t>
+  </si>
+  <si>
+    <t>1431052-e0001436-2018-C00025-001</t>
+  </si>
+  <si>
+    <t>1431052-e0001436-2018-C00032-001</t>
+  </si>
+  <si>
+    <t>1431052-e0001436-2018-C00037-001</t>
+  </si>
+  <si>
+    <t>1431052-e0001437-2018-B00023-001</t>
+  </si>
+  <si>
+    <t>1431052-e0001437-2018-B00026-001</t>
+  </si>
+  <si>
+    <t>1431052-e0001437-2018-B00027-001</t>
+  </si>
+  <si>
+    <t>1431052-e0001437-2018-B00028-001</t>
+  </si>
+  <si>
+    <t>1431052-e0001437-2018-B00029-001</t>
+  </si>
+  <si>
+    <t>1431052-e0001437-2018-B00030-001</t>
+  </si>
+  <si>
+    <t>1431052-e0001437-2018-B00031-001</t>
+  </si>
+  <si>
+    <t>1431052-e0001437-2018-B00034-001</t>
+  </si>
+  <si>
+    <t>1431052-e0001437-2018-B00035-001</t>
+  </si>
+  <si>
+    <t>1431052-e0001437-2018-B00036-001</t>
+  </si>
+  <si>
+    <t>1431052-e0001437-2018-B00039-001</t>
+  </si>
+  <si>
+    <t>1431052-e0001437-2018-B00040-001</t>
+  </si>
+  <si>
+    <t>경기천년 기념 '내가 사랑하는 경기' 영상 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년 홍보전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1431052-e0001436-2017-C00020-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년 홈페이지 구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년 영상콘텐츠 제작 및 송출 /이상민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년 매체홍보 및 영상제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>경기천년 기획홍보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년 대형 현수막 제작 설치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년 매체홍보 및 영상제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년 벚꽃축제 홍보부스 운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년 상반기 홍보부스 운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년 역사 교육부스 운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년 영상콘텐츠 제작 및 송출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년 하반기 홍보부스 운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년 홈페이지 구축</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년 홍보책자 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년 브랜드 및 축제 영상 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e0001435(아카이빙)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도민참여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e0001436(도민참여)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e0001437(브랜딩)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류번호(처리과코드-단위업무코드-연도-기록물철번호-권호수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1431052-e0001435-2017-A00029-001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1431052-e0001435-2017-A00030-001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1431052-e0001435-2017-A00032-001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1431052-e0001436-2017-C00015-001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1431052-e0001436-2017-C00016-001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1431052-e0001436-2017-C00018-001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1431052-e0001436-2017-C00020-001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1431052-e0001436-2017-C00021-001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1431052-e0001437-2017-B00019-001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1431052-e0001437-2017-B00022-001</t>
-  </si>
-  <si>
-    <t>1431052-e0001437-2017-B00023-001</t>
-  </si>
-  <si>
-    <t>1431052-e0001437-2017-B00024-001</t>
-  </si>
-  <si>
-    <t>1431052-e0001437-2017-B00025-001</t>
-  </si>
-  <si>
-    <t>1431052-e0001437-2017-B00026-001</t>
-  </si>
-  <si>
-    <t>1431052-e0001437-2017-B00027-001</t>
-  </si>
-  <si>
-    <t>1431052-e0001437-2017-B00028-001</t>
-  </si>
-  <si>
-    <t>1431052-e0001437-2017-B00031-001</t>
-  </si>
-  <si>
-    <t>1431052-e0001435-2018-A00018-001</t>
-  </si>
-  <si>
-    <t>1431052-e0001435-2018-A00019-001</t>
-  </si>
-  <si>
-    <t>1431052-e0001435-2018-A00020-001</t>
-  </si>
-  <si>
-    <t>1431052-e0001435-2018-A00022-001</t>
-  </si>
-  <si>
-    <t>1431052-e0001435-2018-A00033-001</t>
-  </si>
-  <si>
-    <t>1431052-e0001435-2018-A00038-001</t>
-  </si>
-  <si>
-    <t>1431052-e0001436-2018-C00017-001</t>
-  </si>
-  <si>
-    <t>1431052-e0001436-2018-C00021-001</t>
-  </si>
-  <si>
-    <t>1431052-e0001436-2018-C00024-001</t>
-  </si>
-  <si>
-    <t>1431052-e0001436-2018-C00025-001</t>
-  </si>
-  <si>
-    <t>1431052-e0001436-2018-C00032-001</t>
-  </si>
-  <si>
-    <t>1431052-e0001436-2018-C00037-001</t>
-  </si>
-  <si>
-    <t>1431052-e0001437-2018-B00023-001</t>
-  </si>
-  <si>
-    <t>1431052-e0001437-2018-B00026-001</t>
-  </si>
-  <si>
-    <t>1431052-e0001437-2018-B00027-001</t>
-  </si>
-  <si>
-    <t>1431052-e0001437-2018-B00028-001</t>
-  </si>
-  <si>
-    <t>1431052-e0001437-2018-B00029-001</t>
-  </si>
-  <si>
-    <t>1431052-e0001437-2018-B00030-001</t>
-  </si>
-  <si>
-    <t>1431052-e0001437-2018-B00031-001</t>
-  </si>
-  <si>
-    <t>1431052-e0001437-2018-B00034-001</t>
-  </si>
-  <si>
-    <t>1431052-e0001437-2018-B00035-001</t>
-  </si>
-  <si>
-    <t>1431052-e0001437-2018-B00036-001</t>
-  </si>
-  <si>
-    <t>1431052-e0001437-2018-B00039-001</t>
-  </si>
-  <si>
-    <t>1431052-e0001437-2018-B00040-001</t>
-  </si>
-  <si>
-    <t>경기천년 기념 '내가 사랑하는 경기' 영상 제작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,7 +382,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,8 +435,17 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -461,6 +470,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -596,7 +617,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -621,6 +642,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -630,15 +693,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -648,12 +702,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -663,32 +711,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -986,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -999,233 +1038,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="14">
         <v>1435</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="19" t="s">
         <v>52</v>
       </c>
+      <c r="E3" s="28" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="9"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="20"/>
+        <v>53</v>
+      </c>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="10"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="21"/>
+        <v>54</v>
+      </c>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="14">
         <v>1436</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:5" s="33" customFormat="1">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="12"/>
+      <c r="D8" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="2" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="12"/>
+      <c r="D9" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="13"/>
+        <v>58</v>
+      </c>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="17">
         <v>1437</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="23"/>
+        <v>60</v>
+      </c>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="23"/>
+        <v>61</v>
+      </c>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="23"/>
+        <v>62</v>
+      </c>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="23"/>
+        <v>63</v>
+      </c>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="23"/>
+        <v>64</v>
+      </c>
+      <c r="E16" s="17"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="23"/>
+        <v>65</v>
+      </c>
+      <c r="E17" s="17"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="23"/>
+        <v>66</v>
+      </c>
+      <c r="E18" s="17"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="23"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="17"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="5"/>
@@ -1242,325 +1281,327 @@
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
+      <c r="A22" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="18"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="14">
         <v>1435</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="23"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D26" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="23"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="23"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="23"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="15"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="24"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="16"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="14">
+        <v>1436</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="9"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="4" t="s">
+      <c r="E31" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="9"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="4" t="s">
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E27" s="12"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="9"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="12"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="9"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="12"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="10"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E30" s="13"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="11">
-        <v>1436</v>
-      </c>
-      <c r="C31" s="6" t="s">
+      <c r="E36" s="16"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="11">
+        <v>1437</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="9"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="9"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="9"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="9"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="9"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" s="15"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="9"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" s="15"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="9"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="9"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="9"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="9"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="12"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" s="12"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="12"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" s="12"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" s="13"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A37" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="22">
-        <v>1437</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="27"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E38" s="12"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="27"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E39" s="12"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="27"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E40" s="12"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="27"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D41" s="4" t="s">
+      <c r="D47" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E41" s="12"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="27"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42" s="4" t="s">
+      <c r="E47" s="15"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="10"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E42" s="12"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="27"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E43" s="12"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="27"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E44" s="12"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="27"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E45" s="12"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="27"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E46" s="12"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="27"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E47" s="12"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="28"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E48" s="13"/>
+      <c r="E48" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A37:A48"/>
-    <mergeCell ref="B37:B48"/>
-    <mergeCell ref="E37:E48"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E3:E5"/>
     <mergeCell ref="E25:E30"/>
     <mergeCell ref="E31:E36"/>
     <mergeCell ref="E6:E10"/>
@@ -1571,13 +1612,11 @@
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:A30"/>
     <mergeCell ref="B25:B30"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="A37:A48"/>
+    <mergeCell ref="B37:B48"/>
+    <mergeCell ref="E37:E48"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
